--- a/natmiOut/OldD2/LR-pairs_lrc2p/Plau-Lrp1.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Plau-Lrp1.xlsx
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>21.2591112668206</v>
+        <v>22.556342</v>
       </c>
       <c r="H2">
-        <v>21.2591112668206</v>
+        <v>45.112684</v>
       </c>
       <c r="I2">
-        <v>0.06698883709196432</v>
+        <v>0.06676290190277349</v>
       </c>
       <c r="J2">
-        <v>0.06698883709196432</v>
+        <v>0.04665728030990886</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.82929590830871</v>
+        <v>2.019046</v>
       </c>
       <c r="N2">
-        <v>1.82929590830871</v>
+        <v>4.038092</v>
       </c>
       <c r="O2">
-        <v>0.003716486586948142</v>
+        <v>0.003975353327590414</v>
       </c>
       <c r="P2">
-        <v>0.003716486586948142</v>
+        <v>0.002707057536954368</v>
       </c>
       <c r="Q2">
-        <v>38.88920525467452</v>
+        <v>45.542292089732</v>
       </c>
       <c r="R2">
-        <v>38.88920525467452</v>
+        <v>182.169168358928</v>
       </c>
       <c r="S2">
-        <v>0.0002489631145275396</v>
+        <v>0.000265406124238783</v>
       </c>
       <c r="T2">
-        <v>0.0002489631145275396</v>
+        <v>0.0001263039423167314</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,52 +599,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>21.2591112668206</v>
+        <v>22.556342</v>
       </c>
       <c r="H3">
-        <v>21.2591112668206</v>
+        <v>45.112684</v>
       </c>
       <c r="I3">
-        <v>0.06698883709196432</v>
+        <v>0.06676290190277349</v>
       </c>
       <c r="J3">
-        <v>0.06698883709196432</v>
+        <v>0.04665728030990886</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>131.51157081721</v>
+        <v>139.6948166666666</v>
       </c>
       <c r="N3">
-        <v>131.51157081721</v>
+        <v>419.0844499999999</v>
       </c>
       <c r="O3">
-        <v>0.267185307063049</v>
+        <v>0.2750488370661026</v>
       </c>
       <c r="P3">
-        <v>0.267185307063049</v>
+        <v>0.2809459811695414</v>
       </c>
       <c r="Q3">
-        <v>2795.819116877425</v>
+        <v>3151.004060360633</v>
       </c>
       <c r="R3">
-        <v>2795.819116877425</v>
+        <v>18906.0243621638</v>
       </c>
       <c r="S3">
-        <v>0.01789843300821305</v>
+        <v>0.01836305852751614</v>
       </c>
       <c r="T3">
-        <v>0.01789843300821305</v>
+        <v>0.01310817539536967</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,52 +661,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>21.2591112668206</v>
+        <v>22.556342</v>
       </c>
       <c r="H4">
-        <v>21.2591112668206</v>
+        <v>45.112684</v>
       </c>
       <c r="I4">
-        <v>0.06698883709196432</v>
+        <v>0.06676290190277349</v>
       </c>
       <c r="J4">
-        <v>0.06698883709196432</v>
+        <v>0.04665728030990886</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>184.226558910636</v>
+        <v>186.3548536666667</v>
       </c>
       <c r="N4">
-        <v>184.226558910636</v>
+        <v>559.064561</v>
       </c>
       <c r="O4">
-        <v>0.3742836421604488</v>
+        <v>0.3669190239530987</v>
       </c>
       <c r="P4">
-        <v>0.3742836421604488</v>
+        <v>0.3747858972750337</v>
       </c>
       <c r="Q4">
-        <v>3916.492914184691</v>
+        <v>4203.483812665288</v>
       </c>
       <c r="R4">
-        <v>3916.492914184691</v>
+        <v>25220.90287599173</v>
       </c>
       <c r="S4">
-        <v>0.02507282593087337</v>
+        <v>0.02449657880244213</v>
       </c>
       <c r="T4">
-        <v>0.02507282593087337</v>
+        <v>0.01748649066536195</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,52 +723,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>21.2591112668206</v>
+        <v>22.556342</v>
       </c>
       <c r="H5">
-        <v>21.2591112668206</v>
+        <v>45.112684</v>
       </c>
       <c r="I5">
-        <v>0.06698883709196432</v>
+        <v>0.06676290190277349</v>
       </c>
       <c r="J5">
-        <v>0.06698883709196432</v>
+        <v>0.04665728030990886</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>139.724289413685</v>
+        <v>143.6051993333333</v>
       </c>
       <c r="N5">
-        <v>139.724289413685</v>
+        <v>430.815598</v>
       </c>
       <c r="O5">
-        <v>0.2838706658218726</v>
+        <v>0.2827480934208787</v>
       </c>
       <c r="P5">
-        <v>0.2838706658218726</v>
+        <v>0.2888103122968479</v>
       </c>
       <c r="Q5">
-        <v>2970.414215322973</v>
+        <v>3239.207989140839</v>
       </c>
       <c r="R5">
-        <v>2970.414215322973</v>
+        <v>19435.24793484503</v>
       </c>
       <c r="S5">
-        <v>0.01901616578792887</v>
+        <v>0.01887708322425436</v>
       </c>
       <c r="T5">
-        <v>0.01901616578792887</v>
+        <v>0.01347510369722635</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,52 +785,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>21.2591112668206</v>
+        <v>22.556342</v>
       </c>
       <c r="H6">
-        <v>21.2591112668206</v>
+        <v>45.112684</v>
       </c>
       <c r="I6">
-        <v>0.06698883709196432</v>
+        <v>0.06676290190277349</v>
       </c>
       <c r="J6">
-        <v>0.06698883709196432</v>
+        <v>0.04665728030990886</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>4.95873761014186</v>
+        <v>6.253715333333335</v>
       </c>
       <c r="N6">
-        <v>4.95873761014186</v>
+        <v>18.761146</v>
       </c>
       <c r="O6">
-        <v>0.01007441263744271</v>
+        <v>0.01231310631861279</v>
       </c>
       <c r="P6">
-        <v>0.01007441263744271</v>
+        <v>0.0125771036621259</v>
       </c>
       <c r="Q6">
-        <v>105.4183545969739</v>
+        <v>141.0609418293107</v>
       </c>
       <c r="R6">
-        <v>105.4183545969739</v>
+        <v>846.3656509758642</v>
       </c>
       <c r="S6">
-        <v>0.0006748731869668764</v>
+        <v>0.0008220587092679659</v>
       </c>
       <c r="T6">
-        <v>0.0006748731869668764</v>
+        <v>0.0005868134510505895</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,52 +847,52 @@
         <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>21.2591112668206</v>
+        <v>22.556342</v>
       </c>
       <c r="H7">
-        <v>21.2591112668206</v>
+        <v>45.112684</v>
       </c>
       <c r="I7">
-        <v>0.06698883709196432</v>
+        <v>0.06676290190277349</v>
       </c>
       <c r="J7">
-        <v>0.06698883709196432</v>
+        <v>0.04665728030990886</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>29.9606358269187</v>
+        <v>29.9633245</v>
       </c>
       <c r="N7">
-        <v>29.9606358269187</v>
+        <v>59.926649</v>
       </c>
       <c r="O7">
-        <v>0.06086948573023884</v>
+        <v>0.05899558591371687</v>
       </c>
       <c r="P7">
-        <v>0.06086948573023884</v>
+        <v>0.04017364805949665</v>
       </c>
       <c r="Q7">
-        <v>636.9364906691562</v>
+        <v>675.862994878979</v>
       </c>
       <c r="R7">
-        <v>636.9364906691562</v>
+        <v>2703.451979515916</v>
       </c>
       <c r="S7">
-        <v>0.004077576063454617</v>
+        <v>0.003938716515054125</v>
       </c>
       <c r="T7">
-        <v>0.004077576063454617</v>
+        <v>0.001874393158583561</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,52 +909,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>123.765810628069</v>
+        <v>136.2606836666667</v>
       </c>
       <c r="H8">
-        <v>123.765810628069</v>
+        <v>408.782051</v>
       </c>
       <c r="I8">
-        <v>0.3899940887302467</v>
+        <v>0.4033082428366495</v>
       </c>
       <c r="J8">
-        <v>0.3899940887302467</v>
+        <v>0.4227781867105593</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.82929590830871</v>
+        <v>2.019046</v>
       </c>
       <c r="N8">
-        <v>1.82929590830871</v>
+        <v>4.038092</v>
       </c>
       <c r="O8">
-        <v>0.003716486586948142</v>
+        <v>0.003975353327590414</v>
       </c>
       <c r="P8">
-        <v>0.003716486586948142</v>
+        <v>0.002707057536954368</v>
       </c>
       <c r="Q8">
-        <v>226.4042909704373</v>
+        <v>275.1165883144487</v>
       </c>
       <c r="R8">
-        <v>226.4042909704373</v>
+        <v>1650.699529886692</v>
       </c>
       <c r="S8">
-        <v>0.001449407799755025</v>
+        <v>0.001603292765205317</v>
       </c>
       <c r="T8">
-        <v>0.001449407799755025</v>
+        <v>0.001144484876794721</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,52 +971,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>123.765810628069</v>
+        <v>136.2606836666667</v>
       </c>
       <c r="H9">
-        <v>123.765810628069</v>
+        <v>408.782051</v>
       </c>
       <c r="I9">
-        <v>0.3899940887302467</v>
+        <v>0.4033082428366495</v>
       </c>
       <c r="J9">
-        <v>0.3899940887302467</v>
+        <v>0.4227781867105593</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>131.51157081721</v>
+        <v>139.6948166666666</v>
       </c>
       <c r="N9">
-        <v>131.51157081721</v>
+        <v>419.0844499999999</v>
       </c>
       <c r="O9">
-        <v>0.267185307063049</v>
+        <v>0.2750488370661026</v>
       </c>
       <c r="P9">
-        <v>0.267185307063049</v>
+        <v>0.2809459811695414</v>
       </c>
       <c r="Q9">
-        <v>16276.6361691627</v>
+        <v>19034.91122368966</v>
       </c>
       <c r="R9">
-        <v>16276.6361691627</v>
+        <v>171314.2010132069</v>
       </c>
       <c r="S9">
-        <v>0.1042006903501649</v>
+        <v>0.1109294631713937</v>
       </c>
       <c r="T9">
-        <v>0.1042006903501649</v>
+        <v>0.1187778324824777</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,52 +1033,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>123.765810628069</v>
+        <v>136.2606836666667</v>
       </c>
       <c r="H10">
-        <v>123.765810628069</v>
+        <v>408.782051</v>
       </c>
       <c r="I10">
-        <v>0.3899940887302467</v>
+        <v>0.4033082428366495</v>
       </c>
       <c r="J10">
-        <v>0.3899940887302467</v>
+        <v>0.4227781867105593</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>184.226558910636</v>
+        <v>186.3548536666667</v>
       </c>
       <c r="N10">
-        <v>184.226558910636</v>
+        <v>559.064561</v>
       </c>
       <c r="O10">
-        <v>0.3742836421604488</v>
+        <v>0.3669190239530987</v>
       </c>
       <c r="P10">
-        <v>0.3742836421604488</v>
+        <v>0.3747858972750337</v>
       </c>
       <c r="Q10">
-        <v>22800.94940279457</v>
+        <v>25392.83976522163</v>
       </c>
       <c r="R10">
-        <v>22800.94940279457</v>
+        <v>228535.5578869946</v>
       </c>
       <c r="S10">
-        <v>0.145968407951002</v>
+        <v>0.1479814668138628</v>
       </c>
       <c r="T10">
-        <v>0.145968407951002</v>
+        <v>0.1584513020546287</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,52 +1095,52 @@
         <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>123.765810628069</v>
+        <v>136.2606836666667</v>
       </c>
       <c r="H11">
-        <v>123.765810628069</v>
+        <v>408.782051</v>
       </c>
       <c r="I11">
-        <v>0.3899940887302467</v>
+        <v>0.4033082428366495</v>
       </c>
       <c r="J11">
-        <v>0.3899940887302467</v>
+        <v>0.4227781867105593</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>139.724289413685</v>
+        <v>143.6051993333333</v>
       </c>
       <c r="N11">
-        <v>139.724289413685</v>
+        <v>430.815598</v>
       </c>
       <c r="O11">
-        <v>0.2838706658218726</v>
+        <v>0.2827480934208787</v>
       </c>
       <c r="P11">
-        <v>0.2838706658218726</v>
+        <v>0.2888103122968479</v>
       </c>
       <c r="Q11">
-        <v>17293.08994371564</v>
+        <v>19567.74263924794</v>
       </c>
       <c r="R11">
-        <v>17293.08994371564</v>
+        <v>176109.6837532315</v>
       </c>
       <c r="S11">
-        <v>0.1107078816344496</v>
+        <v>0.1140346367229874</v>
       </c>
       <c r="T11">
-        <v>0.1107078816344496</v>
+        <v>0.1221027001361717</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,52 +1157,52 @@
         <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>123.765810628069</v>
+        <v>136.2606836666667</v>
       </c>
       <c r="H12">
-        <v>123.765810628069</v>
+        <v>408.782051</v>
       </c>
       <c r="I12">
-        <v>0.3899940887302467</v>
+        <v>0.4033082428366495</v>
       </c>
       <c r="J12">
-        <v>0.3899940887302467</v>
+        <v>0.4227781867105593</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>4.95873761014186</v>
+        <v>6.253715333333335</v>
       </c>
       <c r="N12">
-        <v>4.95873761014186</v>
+        <v>18.761146</v>
       </c>
       <c r="O12">
-        <v>0.01007441263744271</v>
+        <v>0.01231310631861279</v>
       </c>
       <c r="P12">
-        <v>0.01007441263744271</v>
+        <v>0.0125771036621259</v>
       </c>
       <c r="Q12">
-        <v>613.7221800111009</v>
+        <v>852.1355267767165</v>
       </c>
       <c r="R12">
-        <v>613.7221800111009</v>
+        <v>7669.219740990448</v>
       </c>
       <c r="S12">
-        <v>0.003928961376031951</v>
+        <v>0.004965977273220569</v>
       </c>
       <c r="T12">
-        <v>0.003928961376031951</v>
+        <v>0.005317325080344324</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,52 +1219,52 @@
         <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>123.765810628069</v>
+        <v>136.2606836666667</v>
       </c>
       <c r="H13">
-        <v>123.765810628069</v>
+        <v>408.782051</v>
       </c>
       <c r="I13">
-        <v>0.3899940887302467</v>
+        <v>0.4033082428366495</v>
       </c>
       <c r="J13">
-        <v>0.3899940887302467</v>
+        <v>0.4227781867105593</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>29.9606358269187</v>
+        <v>29.9633245</v>
       </c>
       <c r="N13">
-        <v>29.9606358269187</v>
+        <v>59.926649</v>
       </c>
       <c r="O13">
-        <v>0.06086948573023884</v>
+        <v>0.05899558591371687</v>
       </c>
       <c r="P13">
-        <v>0.06086948573023884</v>
+        <v>0.04017364805949665</v>
       </c>
       <c r="Q13">
-        <v>3708.10238005096</v>
+        <v>4082.823081296183</v>
       </c>
       <c r="R13">
-        <v>3708.10238005096</v>
+        <v>24496.9384877771</v>
       </c>
       <c r="S13">
-        <v>0.02373873961884325</v>
+        <v>0.02379340608997974</v>
       </c>
       <c r="T13">
-        <v>0.02373873961884325</v>
+        <v>0.01698454208014217</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,52 +1281,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>58.2069871964123</v>
+        <v>60.036368</v>
       </c>
       <c r="H14">
-        <v>58.2069871964123</v>
+        <v>180.109104</v>
       </c>
       <c r="I14">
-        <v>0.1834139881943269</v>
+        <v>0.1776973477074789</v>
       </c>
       <c r="J14">
-        <v>0.1834139881943269</v>
+        <v>0.1862757922293989</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>1.82929590830871</v>
+        <v>2.019046</v>
       </c>
       <c r="N14">
-        <v>1.82929590830871</v>
+        <v>4.038092</v>
       </c>
       <c r="O14">
-        <v>0.003716486586948142</v>
+        <v>0.003975353327590414</v>
       </c>
       <c r="P14">
-        <v>0.003716486586948142</v>
+        <v>0.002707057536954368</v>
       </c>
       <c r="Q14">
-        <v>106.4778035133745</v>
+        <v>121.216188664928</v>
       </c>
       <c r="R14">
-        <v>106.4778035133745</v>
+        <v>727.297131989568</v>
       </c>
       <c r="S14">
-        <v>0.000681655626982881</v>
+        <v>0.000706409742512917</v>
       </c>
       <c r="T14">
-        <v>0.000681655626982881</v>
+        <v>0.0005042592873067402</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,52 +1343,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>58.2069871964123</v>
+        <v>60.036368</v>
       </c>
       <c r="H15">
-        <v>58.2069871964123</v>
+        <v>180.109104</v>
       </c>
       <c r="I15">
-        <v>0.1834139881943269</v>
+        <v>0.1776973477074789</v>
       </c>
       <c r="J15">
-        <v>0.1834139881943269</v>
+        <v>0.1862757922293989</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>131.51157081721</v>
+        <v>139.6948166666666</v>
       </c>
       <c r="N15">
-        <v>131.51157081721</v>
+        <v>419.0844499999999</v>
       </c>
       <c r="O15">
-        <v>0.267185307063049</v>
+        <v>0.2750488370661026</v>
       </c>
       <c r="P15">
-        <v>0.267185307063049</v>
+        <v>0.2809459811695414</v>
       </c>
       <c r="Q15">
-        <v>7654.892318737413</v>
+        <v>8386.769421092533</v>
       </c>
       <c r="R15">
-        <v>7654.892318737413</v>
+        <v>75480.92478983279</v>
       </c>
       <c r="S15">
-        <v>0.04900552275535969</v>
+        <v>0.04887544883667293</v>
       </c>
       <c r="T15">
-        <v>0.04900552275535969</v>
+        <v>0.05233343521602211</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,52 +1405,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>58.2069871964123</v>
+        <v>60.036368</v>
       </c>
       <c r="H16">
-        <v>58.2069871964123</v>
+        <v>180.109104</v>
       </c>
       <c r="I16">
-        <v>0.1834139881943269</v>
+        <v>0.1776973477074789</v>
       </c>
       <c r="J16">
-        <v>0.1834139881943269</v>
+        <v>0.1862757922293989</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>184.226558910636</v>
+        <v>186.3548536666667</v>
       </c>
       <c r="N16">
-        <v>184.226558910636</v>
+        <v>559.064561</v>
       </c>
       <c r="O16">
-        <v>0.3742836421604488</v>
+        <v>0.3669190239530987</v>
       </c>
       <c r="P16">
-        <v>0.3742836421604488</v>
+        <v>0.3747858972750337</v>
       </c>
       <c r="Q16">
-        <v>10723.27295575048</v>
+        <v>11188.06857331815</v>
       </c>
       <c r="R16">
-        <v>10723.27295575048</v>
+        <v>100692.6171598634</v>
       </c>
       <c r="S16">
-        <v>0.06864885552454625</v>
+        <v>0.06520053737988256</v>
       </c>
       <c r="T16">
-        <v>0.06864885552454625</v>
+        <v>0.06981353993131301</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,52 +1467,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>58.2069871964123</v>
+        <v>60.036368</v>
       </c>
       <c r="H17">
-        <v>58.2069871964123</v>
+        <v>180.109104</v>
       </c>
       <c r="I17">
-        <v>0.1834139881943269</v>
+        <v>0.1776973477074789</v>
       </c>
       <c r="J17">
-        <v>0.1834139881943269</v>
+        <v>0.1862757922293989</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>139.724289413685</v>
+        <v>143.6051993333333</v>
       </c>
       <c r="N17">
-        <v>139.724289413685</v>
+        <v>430.815598</v>
       </c>
       <c r="O17">
-        <v>0.2838706658218726</v>
+        <v>0.2827480934208787</v>
       </c>
       <c r="P17">
-        <v>0.2838706658218726</v>
+        <v>0.2888103122968479</v>
       </c>
       <c r="Q17">
-        <v>8132.929924930169</v>
+        <v>8621.534593889355</v>
       </c>
       <c r="R17">
-        <v>8132.929924930169</v>
+        <v>77593.8113450042</v>
       </c>
       <c r="S17">
-        <v>0.05206585094976867</v>
+        <v>0.0502435862702366</v>
       </c>
       <c r="T17">
-        <v>0.05206585094976867</v>
+        <v>0.05379836972711546</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,52 +1529,52 @@
         <v>24</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>58.2069871964123</v>
+        <v>60.036368</v>
       </c>
       <c r="H18">
-        <v>58.2069871964123</v>
+        <v>180.109104</v>
       </c>
       <c r="I18">
-        <v>0.1834139881943269</v>
+        <v>0.1776973477074789</v>
       </c>
       <c r="J18">
-        <v>0.1834139881943269</v>
+        <v>0.1862757922293989</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>4.95873761014186</v>
+        <v>6.253715333333335</v>
       </c>
       <c r="N18">
-        <v>4.95873761014186</v>
+        <v>18.761146</v>
       </c>
       <c r="O18">
-        <v>0.01007441263744271</v>
+        <v>0.01231310631861279</v>
       </c>
       <c r="P18">
-        <v>0.01007441263744271</v>
+        <v>0.0125771036621259</v>
       </c>
       <c r="Q18">
-        <v>288.6331765838954</v>
+        <v>375.4503551192428</v>
       </c>
       <c r="R18">
-        <v>288.6331765838954</v>
+        <v>3379.053196073185</v>
       </c>
       <c r="S18">
-        <v>0.001847788200548696</v>
+        <v>0.002188006334857692</v>
       </c>
       <c r="T18">
-        <v>0.001847788200548696</v>
+        <v>0.002342809948613776</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,52 +1591,52 @@
         <v>25</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>58.2069871964123</v>
+        <v>60.036368</v>
       </c>
       <c r="H19">
-        <v>58.2069871964123</v>
+        <v>180.109104</v>
       </c>
       <c r="I19">
-        <v>0.1834139881943269</v>
+        <v>0.1776973477074789</v>
       </c>
       <c r="J19">
-        <v>0.1834139881943269</v>
+        <v>0.1862757922293989</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>29.9606358269187</v>
+        <v>29.9633245</v>
       </c>
       <c r="N19">
-        <v>29.9606358269187</v>
+        <v>59.926649</v>
       </c>
       <c r="O19">
-        <v>0.06086948573023884</v>
+        <v>0.05899558591371687</v>
       </c>
       <c r="P19">
-        <v>0.06086948573023884</v>
+        <v>0.04017364805949665</v>
       </c>
       <c r="Q19">
-        <v>1743.918345973829</v>
+        <v>1798.889176185416</v>
       </c>
       <c r="R19">
-        <v>1743.918345973829</v>
+        <v>10793.3350571125</v>
       </c>
       <c r="S19">
-        <v>0.01116431513712078</v>
+        <v>0.01048335914331619</v>
       </c>
       <c r="T19">
-        <v>0.01116431513712078</v>
+        <v>0.007483378119027792</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1653,52 +1653,52 @@
         <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>66.2616426112409</v>
+        <v>67.73010366666666</v>
       </c>
       <c r="H20">
-        <v>66.2616426112409</v>
+        <v>203.190311</v>
       </c>
       <c r="I20">
-        <v>0.2087947293101599</v>
+        <v>0.200469485121406</v>
       </c>
       <c r="J20">
-        <v>0.2087947293101599</v>
+        <v>0.2101472680407257</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>1.82929590830871</v>
+        <v>2.019046</v>
       </c>
       <c r="N20">
-        <v>1.82929590830871</v>
+        <v>4.038092</v>
       </c>
       <c r="O20">
-        <v>0.003716486586948142</v>
+        <v>0.003975353327590414</v>
       </c>
       <c r="P20">
-        <v>0.003716486586948142</v>
+        <v>0.002707057536954368</v>
       </c>
       <c r="Q20">
-        <v>121.212151706557</v>
+        <v>136.7501948877687</v>
       </c>
       <c r="R20">
-        <v>121.212151706557</v>
+        <v>820.5011693266119</v>
       </c>
       <c r="S20">
-        <v>0.0007759828109066775</v>
+        <v>0.0007969370347577184</v>
       </c>
       <c r="T20">
-        <v>0.0007759828109066775</v>
+        <v>0.0005688807458200163</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1715,52 +1715,52 @@
         <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>66.2616426112409</v>
+        <v>67.73010366666666</v>
       </c>
       <c r="H21">
-        <v>66.2616426112409</v>
+        <v>203.190311</v>
       </c>
       <c r="I21">
-        <v>0.2087947293101599</v>
+        <v>0.200469485121406</v>
       </c>
       <c r="J21">
-        <v>0.2087947293101599</v>
+        <v>0.2101472680407257</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>131.51157081721</v>
+        <v>139.6948166666666</v>
       </c>
       <c r="N21">
-        <v>131.51157081721</v>
+        <v>419.0844499999999</v>
       </c>
       <c r="O21">
-        <v>0.267185307063049</v>
+        <v>0.2750488370661026</v>
       </c>
       <c r="P21">
-        <v>0.267185307063049</v>
+        <v>0.2809459811695414</v>
       </c>
       <c r="Q21">
-        <v>8714.172704732868</v>
+        <v>9461.544414529326</v>
       </c>
       <c r="R21">
-        <v>8714.172704732868</v>
+        <v>85153.89973076394</v>
       </c>
       <c r="S21">
-        <v>0.05578688386388127</v>
+        <v>0.05513889874988307</v>
       </c>
       <c r="T21">
-        <v>0.05578688386388127</v>
+        <v>0.0590400304098003</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1777,52 +1777,52 @@
         <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>66.2616426112409</v>
+        <v>67.73010366666666</v>
       </c>
       <c r="H22">
-        <v>66.2616426112409</v>
+        <v>203.190311</v>
       </c>
       <c r="I22">
-        <v>0.2087947293101599</v>
+        <v>0.200469485121406</v>
       </c>
       <c r="J22">
-        <v>0.2087947293101599</v>
+        <v>0.2101472680407257</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>184.226558910636</v>
+        <v>186.3548536666667</v>
       </c>
       <c r="N22">
-        <v>184.226558910636</v>
+        <v>559.064561</v>
       </c>
       <c r="O22">
-        <v>0.3742836421604488</v>
+        <v>0.3669190239530987</v>
       </c>
       <c r="P22">
-        <v>0.3742836421604488</v>
+        <v>0.3747858972750337</v>
       </c>
       <c r="Q22">
-        <v>12207.15440603528</v>
+        <v>12621.83355762983</v>
       </c>
       <c r="R22">
-        <v>12207.15440603528</v>
+        <v>113596.5020186685</v>
       </c>
       <c r="S22">
-        <v>0.07814845175011167</v>
+        <v>0.07355606781312654</v>
       </c>
       <c r="T22">
-        <v>0.07814845175011167</v>
+        <v>0.07876023241254039</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1839,52 +1839,52 @@
         <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>66.2616426112409</v>
+        <v>67.73010366666666</v>
       </c>
       <c r="H23">
-        <v>66.2616426112409</v>
+        <v>203.190311</v>
       </c>
       <c r="I23">
-        <v>0.2087947293101599</v>
+        <v>0.200469485121406</v>
       </c>
       <c r="J23">
-        <v>0.2087947293101599</v>
+        <v>0.2101472680407257</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>139.724289413685</v>
+        <v>143.6051993333333</v>
       </c>
       <c r="N23">
-        <v>139.724289413685</v>
+        <v>430.815598</v>
       </c>
       <c r="O23">
-        <v>0.2838706658218726</v>
+        <v>0.2827480934208787</v>
       </c>
       <c r="P23">
-        <v>0.2838706658218726</v>
+        <v>0.2888103122968479</v>
       </c>
       <c r="Q23">
-        <v>9258.360929239187</v>
+        <v>9726.395037918997</v>
       </c>
       <c r="R23">
-        <v>9258.360929239187</v>
+        <v>87537.55534127099</v>
       </c>
       <c r="S23">
-        <v>0.05927069882937275</v>
+        <v>0.05668236470714275</v>
       </c>
       <c r="T23">
-        <v>0.05927069882937275</v>
+        <v>0.0606926981111714</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1901,52 +1901,52 @@
         <v>24</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>66.2616426112409</v>
+        <v>67.73010366666666</v>
       </c>
       <c r="H24">
-        <v>66.2616426112409</v>
+        <v>203.190311</v>
       </c>
       <c r="I24">
-        <v>0.2087947293101599</v>
+        <v>0.200469485121406</v>
       </c>
       <c r="J24">
-        <v>0.2087947293101599</v>
+        <v>0.2101472680407257</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>4.95873761014186</v>
+        <v>6.253715333333335</v>
       </c>
       <c r="N24">
-        <v>4.95873761014186</v>
+        <v>18.761146</v>
       </c>
       <c r="O24">
-        <v>0.01007441263744271</v>
+        <v>0.01231310631861279</v>
       </c>
       <c r="P24">
-        <v>0.01007441263744271</v>
+        <v>0.0125771036621259</v>
       </c>
       <c r="Q24">
-        <v>328.5740993261387</v>
+        <v>423.5647878284897</v>
       </c>
       <c r="R24">
-        <v>328.5740993261387</v>
+        <v>3812.083090456407</v>
       </c>
       <c r="S24">
-        <v>0.002103484259593705</v>
+        <v>0.002468402083937436</v>
       </c>
       <c r="T24">
-        <v>0.002103484259593705</v>
+        <v>0.002643043974460765</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1963,52 +1963,52 @@
         <v>25</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>66.2616426112409</v>
+        <v>67.73010366666666</v>
       </c>
       <c r="H25">
-        <v>66.2616426112409</v>
+        <v>203.190311</v>
       </c>
       <c r="I25">
-        <v>0.2087947293101599</v>
+        <v>0.200469485121406</v>
       </c>
       <c r="J25">
-        <v>0.2087947293101599</v>
+        <v>0.2101472680407257</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>29.9606358269187</v>
+        <v>29.9633245</v>
       </c>
       <c r="N25">
-        <v>29.9606358269187</v>
+        <v>59.926649</v>
       </c>
       <c r="O25">
-        <v>0.06086948573023884</v>
+        <v>0.05899558591371687</v>
       </c>
       <c r="P25">
-        <v>0.06086948573023884</v>
+        <v>0.04017364805949665</v>
       </c>
       <c r="Q25">
-        <v>1985.240943568827</v>
+        <v>2029.419074582973</v>
       </c>
       <c r="R25">
-        <v>1985.240943568827</v>
+        <v>12176.51444749784</v>
       </c>
       <c r="S25">
-        <v>0.01270922779629386</v>
+        <v>0.01182681473255849</v>
       </c>
       <c r="T25">
-        <v>0.01270922779629386</v>
+        <v>0.008442382386932823</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2025,52 +2025,52 @@
         <v>20</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>23.9988076834399</v>
+        <v>27.15284733333333</v>
       </c>
       <c r="H26">
-        <v>23.9988076834399</v>
+        <v>81.45854199999999</v>
       </c>
       <c r="I26">
-        <v>0.07562179802014692</v>
+        <v>0.0803677689802858</v>
       </c>
       <c r="J26">
-        <v>0.07562179802014692</v>
+        <v>0.08424757054425056</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>1.82929590830871</v>
+        <v>2.019046</v>
       </c>
       <c r="N26">
-        <v>1.82929590830871</v>
+        <v>4.038092</v>
       </c>
       <c r="O26">
-        <v>0.003716486586948142</v>
+        <v>0.003975353327590414</v>
       </c>
       <c r="P26">
-        <v>0.003716486586948142</v>
+        <v>0.002707057536954368</v>
       </c>
       <c r="Q26">
-        <v>43.90092069960424</v>
+        <v>54.82284779697732</v>
       </c>
       <c r="R26">
-        <v>43.90092069960424</v>
+        <v>328.937086781864</v>
       </c>
       <c r="S26">
-        <v>0.0002810473980227776</v>
+        <v>0.0003194902778467968</v>
       </c>
       <c r="T26">
-        <v>0.0002810473980227776</v>
+        <v>0.0002280630208119083</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2087,52 +2087,52 @@
         <v>21</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F27">
         <v>1</v>
       </c>
       <c r="G27">
-        <v>23.9988076834399</v>
+        <v>27.15284733333333</v>
       </c>
       <c r="H27">
-        <v>23.9988076834399</v>
+        <v>81.45854199999999</v>
       </c>
       <c r="I27">
-        <v>0.07562179802014692</v>
+        <v>0.0803677689802858</v>
       </c>
       <c r="J27">
-        <v>0.07562179802014692</v>
+        <v>0.08424757054425056</v>
       </c>
       <c r="K27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L27">
         <v>1</v>
       </c>
       <c r="M27">
-        <v>131.51157081721</v>
+        <v>139.6948166666666</v>
       </c>
       <c r="N27">
-        <v>131.51157081721</v>
+        <v>419.0844499999999</v>
       </c>
       <c r="O27">
-        <v>0.267185307063049</v>
+        <v>0.2750488370661026</v>
       </c>
       <c r="P27">
-        <v>0.267185307063049</v>
+        <v>0.2809459811695414</v>
       </c>
       <c r="Q27">
-        <v>3156.12089618931</v>
+        <v>3793.112030207988</v>
       </c>
       <c r="R27">
-        <v>3156.12089618931</v>
+        <v>34138.00827187189</v>
       </c>
       <c r="S27">
-        <v>0.02020503332467282</v>
+        <v>0.0221050613956248</v>
       </c>
       <c r="T27">
-        <v>0.02020503332467282</v>
+        <v>0.02366901636770463</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2149,52 +2149,52 @@
         <v>22</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F28">
         <v>1</v>
       </c>
       <c r="G28">
-        <v>23.9988076834399</v>
+        <v>27.15284733333333</v>
       </c>
       <c r="H28">
-        <v>23.9988076834399</v>
+        <v>81.45854199999999</v>
       </c>
       <c r="I28">
-        <v>0.07562179802014692</v>
+        <v>0.0803677689802858</v>
       </c>
       <c r="J28">
-        <v>0.07562179802014692</v>
+        <v>0.08424757054425056</v>
       </c>
       <c r="K28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L28">
         <v>1</v>
       </c>
       <c r="M28">
-        <v>184.226558910636</v>
+        <v>186.3548536666667</v>
       </c>
       <c r="N28">
-        <v>184.226558910636</v>
+        <v>559.064561</v>
       </c>
       <c r="O28">
-        <v>0.3742836421604488</v>
+        <v>0.3669190239530987</v>
       </c>
       <c r="P28">
-        <v>0.3742836421604488</v>
+        <v>0.3747858972750337</v>
       </c>
       <c r="Q28">
-        <v>4421.217757478265</v>
+        <v>5060.064891436674</v>
       </c>
       <c r="R28">
-        <v>4421.217757478265</v>
+        <v>45540.58402293006</v>
       </c>
       <c r="S28">
-        <v>0.02830400198970241</v>
+        <v>0.02948846335153459</v>
       </c>
       <c r="T28">
-        <v>0.02830400198970241</v>
+        <v>0.03157480131966865</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2211,52 +2211,52 @@
         <v>23</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F29">
         <v>1</v>
       </c>
       <c r="G29">
-        <v>23.9988076834399</v>
+        <v>27.15284733333333</v>
       </c>
       <c r="H29">
-        <v>23.9988076834399</v>
+        <v>81.45854199999999</v>
       </c>
       <c r="I29">
-        <v>0.07562179802014692</v>
+        <v>0.0803677689802858</v>
       </c>
       <c r="J29">
-        <v>0.07562179802014692</v>
+        <v>0.08424757054425056</v>
       </c>
       <c r="K29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L29">
         <v>1</v>
       </c>
       <c r="M29">
-        <v>139.724289413685</v>
+        <v>143.6051993333333</v>
       </c>
       <c r="N29">
-        <v>139.724289413685</v>
+        <v>430.815598</v>
       </c>
       <c r="O29">
-        <v>0.2838706658218726</v>
+        <v>0.2827480934208787</v>
       </c>
       <c r="P29">
-        <v>0.2838706658218726</v>
+        <v>0.2888103122968479</v>
       </c>
       <c r="Q29">
-        <v>3353.216350344324</v>
+        <v>3899.290053770901</v>
       </c>
       <c r="R29">
-        <v>3353.216350344324</v>
+        <v>35093.61048393812</v>
       </c>
       <c r="S29">
-        <v>0.02146681015462627</v>
+        <v>0.02272383345166545</v>
       </c>
       <c r="T29">
-        <v>0.02146681015462627</v>
+        <v>0.02433156715913573</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2273,52 +2273,52 @@
         <v>24</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F30">
         <v>1</v>
       </c>
       <c r="G30">
-        <v>23.9988076834399</v>
+        <v>27.15284733333333</v>
       </c>
       <c r="H30">
-        <v>23.9988076834399</v>
+        <v>81.45854199999999</v>
       </c>
       <c r="I30">
-        <v>0.07562179802014692</v>
+        <v>0.0803677689802858</v>
       </c>
       <c r="J30">
-        <v>0.07562179802014692</v>
+        <v>0.08424757054425056</v>
       </c>
       <c r="K30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L30">
         <v>1</v>
       </c>
       <c r="M30">
-        <v>4.95873761014186</v>
+        <v>6.253715333333335</v>
       </c>
       <c r="N30">
-        <v>4.95873761014186</v>
+        <v>18.761146</v>
       </c>
       <c r="O30">
-        <v>0.01007441263744271</v>
+        <v>0.01231310631861279</v>
       </c>
       <c r="P30">
-        <v>0.01007441263744271</v>
+        <v>0.0125771036621259</v>
       </c>
       <c r="Q30">
-        <v>119.0037902584349</v>
+        <v>169.8061777121258</v>
       </c>
       <c r="R30">
-        <v>119.0037902584349</v>
+        <v>1528.255599409132</v>
       </c>
       <c r="S30">
-        <v>0.0007618451976403082</v>
+        <v>0.0009895768840439698</v>
       </c>
       <c r="T30">
-        <v>0.0007618451976403082</v>
+        <v>0.001059590428017304</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2335,52 +2335,52 @@
         <v>25</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F31">
         <v>1</v>
       </c>
       <c r="G31">
-        <v>23.9988076834399</v>
+        <v>27.15284733333333</v>
       </c>
       <c r="H31">
-        <v>23.9988076834399</v>
+        <v>81.45854199999999</v>
       </c>
       <c r="I31">
-        <v>0.07562179802014692</v>
+        <v>0.0803677689802858</v>
       </c>
       <c r="J31">
-        <v>0.07562179802014692</v>
+        <v>0.08424757054425056</v>
       </c>
       <c r="K31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L31">
         <v>1</v>
       </c>
       <c r="M31">
-        <v>29.9606358269187</v>
+        <v>29.9633245</v>
       </c>
       <c r="N31">
-        <v>29.9606358269187</v>
+        <v>59.926649</v>
       </c>
       <c r="O31">
-        <v>0.06086948573023884</v>
+        <v>0.05899558591371687</v>
       </c>
       <c r="P31">
-        <v>0.06086948573023884</v>
+        <v>0.04017364805949665</v>
       </c>
       <c r="Q31">
-        <v>719.0195372838012</v>
+        <v>813.5895757476262</v>
       </c>
       <c r="R31">
-        <v>719.0195372838012</v>
+        <v>4881.537454485758</v>
       </c>
       <c r="S31">
-        <v>0.004603059955482337</v>
+        <v>0.004741343619570201</v>
       </c>
       <c r="T31">
-        <v>0.004603059955482337</v>
+        <v>0.003384532248912339</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2397,52 +2397,52 @@
         <v>20</v>
       </c>
       <c r="E32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F32">
         <v>1</v>
       </c>
       <c r="G32">
-        <v>23.8606831460953</v>
+        <v>24.1210785</v>
       </c>
       <c r="H32">
-        <v>23.8606831460953</v>
+        <v>48.242157</v>
       </c>
       <c r="I32">
-        <v>0.07518655865315506</v>
+        <v>0.07139425345140619</v>
       </c>
       <c r="J32">
-        <v>0.07518655865315506</v>
+        <v>0.04989390216515674</v>
       </c>
       <c r="K32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L32">
         <v>1</v>
       </c>
       <c r="M32">
-        <v>1.82929590830871</v>
+        <v>2.019046</v>
       </c>
       <c r="N32">
-        <v>1.82929590830871</v>
+        <v>4.038092</v>
       </c>
       <c r="O32">
-        <v>0.003716486586948142</v>
+        <v>0.003975353327590414</v>
       </c>
       <c r="P32">
-        <v>0.003716486586948142</v>
+        <v>0.002707057536954368</v>
       </c>
       <c r="Q32">
-        <v>43.64825004860273</v>
+        <v>48.701567061111</v>
       </c>
       <c r="R32">
-        <v>43.64825004860273</v>
+        <v>194.806268244444</v>
       </c>
       <c r="S32">
-        <v>0.0002794298367532406</v>
+        <v>0.000283817383028881</v>
       </c>
       <c r="T32">
-        <v>0.0002794298367532406</v>
+        <v>0.0001350656639042514</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2459,52 +2459,52 @@
         <v>21</v>
       </c>
       <c r="E33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F33">
         <v>1</v>
       </c>
       <c r="G33">
-        <v>23.8606831460953</v>
+        <v>24.1210785</v>
       </c>
       <c r="H33">
-        <v>23.8606831460953</v>
+        <v>48.242157</v>
       </c>
       <c r="I33">
-        <v>0.07518655865315506</v>
+        <v>0.07139425345140619</v>
       </c>
       <c r="J33">
-        <v>0.07518655865315506</v>
+        <v>0.04989390216515674</v>
       </c>
       <c r="K33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L33">
         <v>1</v>
       </c>
       <c r="M33">
-        <v>131.51157081721</v>
+        <v>139.6948166666666</v>
       </c>
       <c r="N33">
-        <v>131.51157081721</v>
+        <v>419.0844499999999</v>
       </c>
       <c r="O33">
-        <v>0.267185307063049</v>
+        <v>0.2750488370661026</v>
       </c>
       <c r="P33">
-        <v>0.267185307063049</v>
+        <v>0.2809459811695414</v>
       </c>
       <c r="Q33">
-        <v>3137.955921314722</v>
+        <v>3369.589638859774</v>
       </c>
       <c r="R33">
-        <v>3137.955921314722</v>
+        <v>20217.53783315865</v>
       </c>
       <c r="S33">
-        <v>0.02008874376075718</v>
+        <v>0.01963690638501185</v>
       </c>
       <c r="T33">
-        <v>0.02008874376075718</v>
+        <v>0.01401749129816707</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2521,52 +2521,52 @@
         <v>22</v>
       </c>
       <c r="E34">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F34">
         <v>1</v>
       </c>
       <c r="G34">
-        <v>23.8606831460953</v>
+        <v>24.1210785</v>
       </c>
       <c r="H34">
-        <v>23.8606831460953</v>
+        <v>48.242157</v>
       </c>
       <c r="I34">
-        <v>0.07518655865315506</v>
+        <v>0.07139425345140619</v>
       </c>
       <c r="J34">
-        <v>0.07518655865315506</v>
+        <v>0.04989390216515674</v>
       </c>
       <c r="K34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L34">
         <v>1</v>
       </c>
       <c r="M34">
-        <v>184.226558910636</v>
+        <v>186.3548536666667</v>
       </c>
       <c r="N34">
-        <v>184.226558910636</v>
+        <v>559.064561</v>
       </c>
       <c r="O34">
-        <v>0.3742836421604488</v>
+        <v>0.3669190239530987</v>
       </c>
       <c r="P34">
-        <v>0.3742836421604488</v>
+        <v>0.3747858972750337</v>
       </c>
       <c r="Q34">
-        <v>4395.771549262146</v>
+        <v>4495.08005414968</v>
       </c>
       <c r="R34">
-        <v>4395.771549262146</v>
+        <v>26970.48032489808</v>
       </c>
       <c r="S34">
-        <v>0.02814109901421309</v>
+        <v>0.02619590979225011</v>
       </c>
       <c r="T34">
-        <v>0.02814109901421309</v>
+        <v>0.01869953089152102</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2583,52 +2583,52 @@
         <v>23</v>
       </c>
       <c r="E35">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F35">
         <v>1</v>
       </c>
       <c r="G35">
-        <v>23.8606831460953</v>
+        <v>24.1210785</v>
       </c>
       <c r="H35">
-        <v>23.8606831460953</v>
+        <v>48.242157</v>
       </c>
       <c r="I35">
-        <v>0.07518655865315506</v>
+        <v>0.07139425345140619</v>
       </c>
       <c r="J35">
-        <v>0.07518655865315506</v>
+        <v>0.04989390216515674</v>
       </c>
       <c r="K35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L35">
         <v>1</v>
       </c>
       <c r="M35">
-        <v>139.724289413685</v>
+        <v>143.6051993333333</v>
       </c>
       <c r="N35">
-        <v>139.724289413685</v>
+        <v>430.815598</v>
       </c>
       <c r="O35">
-        <v>0.2838706658218726</v>
+        <v>0.2827480934208787</v>
       </c>
       <c r="P35">
-        <v>0.2838706658218726</v>
+        <v>0.2888103122968479</v>
       </c>
       <c r="Q35">
-        <v>3333.916997513256</v>
+        <v>3463.912286127481</v>
       </c>
       <c r="R35">
-        <v>3333.916997513256</v>
+        <v>20783.47371676489</v>
       </c>
       <c r="S35">
-        <v>0.0213432584657264</v>
+        <v>0.02018658904459209</v>
       </c>
       <c r="T35">
-        <v>0.0213432584657264</v>
+        <v>0.0144098734660273</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2645,52 +2645,52 @@
         <v>24</v>
       </c>
       <c r="E36">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F36">
         <v>1</v>
       </c>
       <c r="G36">
-        <v>23.8606831460953</v>
+        <v>24.1210785</v>
       </c>
       <c r="H36">
-        <v>23.8606831460953</v>
+        <v>48.242157</v>
       </c>
       <c r="I36">
-        <v>0.07518655865315506</v>
+        <v>0.07139425345140619</v>
       </c>
       <c r="J36">
-        <v>0.07518655865315506</v>
+        <v>0.04989390216515674</v>
       </c>
       <c r="K36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L36">
         <v>1</v>
       </c>
       <c r="M36">
-        <v>4.95873761014186</v>
+        <v>6.253715333333335</v>
       </c>
       <c r="N36">
-        <v>4.95873761014186</v>
+        <v>18.761146</v>
       </c>
       <c r="O36">
-        <v>0.01007441263744271</v>
+        <v>0.01231310631861279</v>
       </c>
       <c r="P36">
-        <v>0.01007441263744271</v>
+        <v>0.0125771036621259</v>
       </c>
       <c r="Q36">
-        <v>118.3188669202208</v>
+        <v>150.846358471987</v>
       </c>
       <c r="R36">
-        <v>118.3188669202208</v>
+        <v>905.0781508319221</v>
       </c>
       <c r="S36">
-        <v>0.000757460416661173</v>
+        <v>0.0008790850332851523</v>
       </c>
       <c r="T36">
-        <v>0.000757460416661173</v>
+        <v>0.0006275207796391444</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2707,52 +2707,52 @@
         <v>25</v>
       </c>
       <c r="E37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F37">
         <v>1</v>
       </c>
       <c r="G37">
-        <v>23.8606831460953</v>
+        <v>24.1210785</v>
       </c>
       <c r="H37">
-        <v>23.8606831460953</v>
+        <v>48.242157</v>
       </c>
       <c r="I37">
-        <v>0.07518655865315506</v>
+        <v>0.07139425345140619</v>
       </c>
       <c r="J37">
-        <v>0.07518655865315506</v>
+        <v>0.04989390216515674</v>
       </c>
       <c r="K37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L37">
         <v>1</v>
       </c>
       <c r="M37">
-        <v>29.9606358269187</v>
+        <v>29.9633245</v>
       </c>
       <c r="N37">
-        <v>29.9606358269187</v>
+        <v>59.926649</v>
       </c>
       <c r="O37">
-        <v>0.06086948573023884</v>
+        <v>0.05899558591371687</v>
       </c>
       <c r="P37">
-        <v>0.06086948573023884</v>
+        <v>0.04017364805949665</v>
       </c>
       <c r="Q37">
-        <v>714.8812383216581</v>
+        <v>722.7477023854732</v>
       </c>
       <c r="R37">
-        <v>714.8812383216581</v>
+        <v>2890.990809541893</v>
       </c>
       <c r="S37">
-        <v>0.004576567159043987</v>
+        <v>0.004211945813238111</v>
       </c>
       <c r="T37">
-        <v>0.004576567159043987</v>
+        <v>0.002004420065897965</v>
       </c>
     </row>
   </sheetData>
